--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.021920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.021920.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4217,12 +4217,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5523,12 +5523,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5691,12 +5691,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
